--- a/blog/user stories.xlsx
+++ b/blog/user stories.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\php\blog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0DAB09-E8EF-4CA2-8442-9EF1BFFF3EE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3053658-7527-4736-92D7-EE60B9ECAD16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{31029518-CB4C-4555-B347-49738B551582}"/>
   </bookViews>
   <sheets>
     <sheet name="Stories" sheetId="1" r:id="rId1"/>
-    <sheet name="Technical Team" sheetId="2" r:id="rId2"/>
-    <sheet name="Posts" sheetId="3" r:id="rId3"/>
-    <sheet name="Tags" sheetId="8" r:id="rId4"/>
-    <sheet name="Categories" sheetId="4" r:id="rId5"/>
-    <sheet name="Users" sheetId="5" r:id="rId6"/>
-    <sheet name="Comments" sheetId="6" r:id="rId7"/>
-    <sheet name="Likes" sheetId="7" r:id="rId8"/>
-    <sheet name="PostTags" sheetId="9" r:id="rId9"/>
-    <sheet name="FollowingUsers" sheetId="10" r:id="rId10"/>
+    <sheet name="Site Pages" sheetId="11" r:id="rId2"/>
+    <sheet name="Technical Team" sheetId="2" r:id="rId3"/>
+    <sheet name="Posts" sheetId="3" r:id="rId4"/>
+    <sheet name="Tags" sheetId="8" r:id="rId5"/>
+    <sheet name="Categories" sheetId="4" r:id="rId6"/>
+    <sheet name="Users" sheetId="5" r:id="rId7"/>
+    <sheet name="Comments" sheetId="6" r:id="rId8"/>
+    <sheet name="Likes" sheetId="7" r:id="rId9"/>
+    <sheet name="PostTags" sheetId="9" r:id="rId10"/>
+    <sheet name="FollowingUsers" sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="111">
   <si>
     <t>#</t>
   </si>
@@ -138,9 +139,6 @@
     <t>I can search for tags</t>
   </si>
   <si>
-    <t>I can search for keywords</t>
-  </si>
-  <si>
     <t>I can view all categories</t>
   </si>
   <si>
@@ -304,6 +302,81 @@
   </si>
   <si>
     <t>follow_date</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>latest 4 posts</t>
+  </si>
+  <si>
+    <t>All categories</t>
+  </si>
+  <si>
+    <t>latest 10 tags</t>
+  </si>
+  <si>
+    <t>latest post from all categories</t>
+  </si>
+  <si>
+    <t>posts</t>
+  </si>
+  <si>
+    <t>paginated posts (6 per page) filtered by category, sorted by publish date</t>
+  </si>
+  <si>
+    <t>post_detail</t>
+  </si>
+  <si>
+    <t>post detail + comments</t>
+  </si>
+  <si>
+    <t>contact us</t>
+  </si>
+  <si>
+    <t>contact us page</t>
+  </si>
+  <si>
+    <t>login page</t>
+  </si>
+  <si>
+    <t>register page</t>
+  </si>
+  <si>
+    <t>admin/posts</t>
+  </si>
+  <si>
+    <t>admin/posts/create</t>
+  </si>
+  <si>
+    <t>admin/posts/edit</t>
+  </si>
+  <si>
+    <t>admin/categories</t>
+  </si>
+  <si>
+    <t>admin/categories/create</t>
+  </si>
+  <si>
+    <t>admin/categories/edit</t>
+  </si>
+  <si>
+    <t>admin/tags</t>
+  </si>
+  <si>
+    <t>admin/tags/create</t>
+  </si>
+  <si>
+    <t>admin/tags/edit</t>
+  </si>
+  <si>
+    <t>admin/users</t>
+  </si>
+  <si>
+    <t>admin/users/create</t>
+  </si>
+  <si>
+    <t>admin/users/edit</t>
   </si>
 </sst>
 </file>
@@ -763,10 +836,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{534CE0D9-BA0D-448C-9F47-319B051873CF}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F2" sqref="A2:F4"/>
+      <selection activeCell="A2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -798,10 +871,10 @@
         <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E2">
         <v>10</v>
@@ -815,10 +888,10 @@
         <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3">
         <v>15</v>
@@ -838,7 +911,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>15</v>
@@ -861,7 +934,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5">
         <v>30</v>
@@ -884,7 +957,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E6">
         <v>20</v>
@@ -907,7 +980,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E7">
         <v>10</v>
@@ -921,10 +994,10 @@
         <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E8">
         <v>15</v>
@@ -938,10 +1011,10 @@
         <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E9">
         <v>5</v>
@@ -955,7 +1028,7 @@
         <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
         <v>30</v>
@@ -972,16 +1045,16 @@
         <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E11">
         <v>5</v>
       </c>
       <c r="F11">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -992,13 +1065,13 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E12">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F12">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1009,13 +1082,13 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E13">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F13">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1026,13 +1099,13 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E14">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="F14">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1043,13 +1116,13 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E15">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F15">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1057,16 +1130,16 @@
         <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E16">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F16">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
@@ -1080,10 +1153,10 @@
         <v>46</v>
       </c>
       <c r="E17">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F17">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
@@ -1100,7 +1173,7 @@
         <v>10</v>
       </c>
       <c r="F18">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
@@ -1117,7 +1190,7 @@
         <v>10</v>
       </c>
       <c r="F19">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
@@ -1131,10 +1204,10 @@
         <v>49</v>
       </c>
       <c r="E20">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F20">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
@@ -1142,44 +1215,74 @@
         <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="D21" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="E21">
         <v>15</v>
       </c>
       <c r="F21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" t="s">
-        <v>35</v>
-      </c>
-      <c r="E22">
-        <v>15</v>
-      </c>
-      <c r="F22">
         <v>21</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F22">
-    <sortCondition ref="F2:F22"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F21">
+    <sortCondition ref="F2:F21"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F90E0F5-795B-4E45-8800-7361B09A7BC8}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C7B892E-57DA-4D6F-AD3F-A3FE3628B1E6}">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -1194,16 +1297,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" t="s">
         <v>84</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>85</v>
-      </c>
-      <c r="D1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1268,6 +1371,154 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB441F90-6DC8-4390-9FE3-DB04A937EF7A}">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="66.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C47B7453-B8D7-4A5B-88D8-4C573B09AB15}">
   <dimension ref="B2:F15"/>
   <sheetViews>
@@ -1372,7 +1623,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F17BA4A3-E119-4016-B94C-A5D7121F08C5}">
   <dimension ref="A1:H3"/>
   <sheetViews>
@@ -1397,25 +1648,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>56</v>
-      </c>
       <c r="H1" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1423,10 +1674,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="D2" s="7">
         <v>44238.49690972222</v>
@@ -1447,13 +1698,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="E3" s="4">
         <v>1</v>
@@ -1473,7 +1724,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22D52E69-701A-43FD-80D6-2F2CE3C8EE07}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -1485,10 +1736,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" t="s">
         <v>68</v>
-      </c>
-      <c r="B1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1496,7 +1747,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1504,7 +1755,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1512,7 +1763,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1520,7 +1771,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA2D046E-A105-4CE8-AC52-46819233242E}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -1532,10 +1783,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" t="s">
         <v>68</v>
-      </c>
-      <c r="B1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1543,7 +1794,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1551,7 +1802,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1559,7 +1810,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89968C7D-A9AB-4AFC-9B86-FCC93F686A4F}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -1574,13 +1825,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" t="s">
         <v>68</v>
       </c>
-      <c r="B1" t="s">
-        <v>69</v>
-      </c>
       <c r="C1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1588,10 +1839,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1599,10 +1850,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1610,10 +1861,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1621,7 +1872,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFFE6CF2-4137-4392-99AD-00B9854634D9}">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -1637,19 +1888,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" t="s">
         <v>78</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>79</v>
       </c>
-      <c r="D1" t="s">
-        <v>80</v>
-      </c>
       <c r="E1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1657,7 +1908,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C2" s="8">
         <v>44248</v>
@@ -1674,7 +1925,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C3" s="8">
         <v>44276</v>
@@ -1691,7 +1942,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9CDCD96-2B4F-4FDC-847B-1B2CF21E8FF5}">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -1706,16 +1957,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1743,53 +1994,6 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F90E0F5-795B-4E45-8800-7361B09A7BC8}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
         <v>3</v>
       </c>
     </row>

--- a/blog/user stories.xlsx
+++ b/blog/user stories.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\php\blog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3053658-7527-4736-92D7-EE60B9ECAD16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60AFD4BA-0CB6-48CC-9754-3C7077DA5084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{31029518-CB4C-4555-B347-49738B551582}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{31029518-CB4C-4555-B347-49738B551582}"/>
   </bookViews>
   <sheets>
     <sheet name="Stories" sheetId="1" r:id="rId1"/>
@@ -406,12 +406,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="7">
@@ -512,7 +518,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -522,6 +528,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -838,8 +845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{534CE0D9-BA0D-448C-9F47-319B051873CF}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F2"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -867,36 +874,38 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="9">
         <v>10</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="9">
         <v>15</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="9">
         <v>2</v>
       </c>
       <c r="J3" t="s">
@@ -1374,7 +1383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB441F90-6DC8-4390-9FE3-DB04A937EF7A}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>

--- a/blog/user stories.xlsx
+++ b/blog/user stories.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\php\blog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60AFD4BA-0CB6-48CC-9754-3C7077DA5084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B675E3F-E1F6-4709-9574-6EE529A6996D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{31029518-CB4C-4555-B347-49738B551582}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{31029518-CB4C-4555-B347-49738B551582}"/>
   </bookViews>
   <sheets>
     <sheet name="Stories" sheetId="1" r:id="rId1"/>
@@ -415,7 +415,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -845,8 +845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{534CE0D9-BA0D-448C-9F47-319B051873CF}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -913,19 +913,20 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="9">
         <v>15</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="9">
         <v>3</v>
       </c>
       <c r="J4">
@@ -936,19 +937,20 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="9">
         <v>30</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="9">
         <v>4</v>
       </c>
       <c r="J5">
@@ -999,53 +1001,56 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="9">
         <v>15</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="9">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="9">
         <v>5</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="9">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="9">
         <v>5</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="9">
         <v>9</v>
       </c>
     </row>
@@ -1383,8 +1388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB441F90-6DC8-4390-9FE3-DB04A937EF7A}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/blog/user stories.xlsx
+++ b/blog/user stories.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\php\blog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B675E3F-E1F6-4709-9574-6EE529A6996D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98767B23-2226-4308-9543-0F7276489F63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{31029518-CB4C-4555-B347-49738B551582}"/>
   </bookViews>
@@ -406,7 +406,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -416,6 +416,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,7 +530,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -529,6 +541,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -846,7 +860,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -961,19 +975,20 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="9">
         <v>20</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="9">
         <v>5</v>
       </c>
       <c r="J6">
@@ -984,19 +999,20 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="9">
         <v>10</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="9">
         <v>6</v>
       </c>
     </row>
@@ -1055,176 +1071,186 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="9">
         <v>5</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="9">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="10">
         <v>10</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="10">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="10">
         <v>5</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="10">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="10">
         <v>25</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="10">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="10">
         <v>20</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="10">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="11">
         <v>30</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="11">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="11">
         <v>10</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="11">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="11">
         <v>10</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="11">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="11">
         <v>10</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="11">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="11">
         <v>15</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>29</v>
       </c>
